--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>363.7116790626035</v>
+        <v>412.4088301712956</v>
       </c>
       <c r="AB2" t="n">
-        <v>497.6463651202777</v>
+        <v>564.2759556338731</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.1516944842578</v>
+        <v>510.4222503944532</v>
       </c>
       <c r="AD2" t="n">
-        <v>363711.6790626035</v>
+        <v>412408.8301712956</v>
       </c>
       <c r="AE2" t="n">
-        <v>497646.3651202777</v>
+        <v>564275.9556338731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.796234108234212e-06</v>
+        <v>3.323503380241212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.460648148148147</v>
       </c>
       <c r="AH2" t="n">
-        <v>450151.6944842578</v>
+        <v>510422.2503944532</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.8297380852798</v>
+        <v>265.3312885802965</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.0949429036909</v>
+        <v>363.0379746258758</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.2136009845677</v>
+        <v>328.390139854579</v>
       </c>
       <c r="AD3" t="n">
-        <v>228829.7380852798</v>
+        <v>265331.2885802965</v>
       </c>
       <c r="AE3" t="n">
-        <v>313094.9429036909</v>
+        <v>363037.9746258758</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.494886302311743e-06</v>
+        <v>4.616192856510109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.090856481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>283213.6009845677</v>
+        <v>328390.139854579</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.3439289983757</v>
+        <v>225.7601386388175</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.0687169200625</v>
+        <v>308.8949815198732</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.3435621825151</v>
+        <v>279.4144780205374</v>
       </c>
       <c r="AD4" t="n">
-        <v>189343.9289983757</v>
+        <v>225760.1386388175</v>
       </c>
       <c r="AE4" t="n">
-        <v>259068.7169200624</v>
+        <v>308894.9815198733</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.76609128842137e-06</v>
+        <v>5.117993086191579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>234343.5621825151</v>
+        <v>279414.4780205374</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.5652553825378</v>
+        <v>198.9565461184449</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.8478836898184</v>
+        <v>272.2211237424718</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.0525768956414</v>
+        <v>246.2407217573169</v>
       </c>
       <c r="AD5" t="n">
-        <v>174565.2553825378</v>
+        <v>198956.5461184449</v>
       </c>
       <c r="AE5" t="n">
-        <v>238847.8836898184</v>
+        <v>272221.1237424719</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.908311099107828e-06</v>
+        <v>5.381136971160096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.225694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>216052.5768956414</v>
+        <v>246240.7217573169</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.6435647874758</v>
+        <v>197.0348555233829</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.2185418386503</v>
+        <v>269.5917818913037</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.6741757404435</v>
+        <v>243.862320602119</v>
       </c>
       <c r="AD6" t="n">
-        <v>172643.5647874758</v>
+        <v>197034.8555233829</v>
       </c>
       <c r="AE6" t="n">
-        <v>236218.5418386502</v>
+        <v>269591.7818913037</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.92863571754788e-06</v>
+        <v>5.418742836552568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.188078703703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>213674.1757404435</v>
+        <v>243862.320602119</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.5141095780717</v>
+        <v>325.3983659083485</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.0752919000482</v>
+        <v>445.2243997985425</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.7060008836381</v>
+        <v>402.7328079581387</v>
       </c>
       <c r="AD2" t="n">
-        <v>278514.1095780717</v>
+        <v>325398.3659083485</v>
       </c>
       <c r="AE2" t="n">
-        <v>381075.2919000481</v>
+        <v>445224.3997985426</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.125915045602515e-06</v>
+        <v>4.052322174486656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>344706.000883638</v>
+        <v>402732.8079581386</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.2365033057681</v>
+        <v>217.5276397039193</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.3440235299499</v>
+        <v>297.6309132849311</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.5469798808589</v>
+        <v>269.2254366487155</v>
       </c>
       <c r="AD3" t="n">
-        <v>182236.5033057681</v>
+        <v>217527.6397039193</v>
       </c>
       <c r="AE3" t="n">
-        <v>249344.0235299499</v>
+        <v>297630.913284931</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.780368729204045e-06</v>
+        <v>5.299811898837954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.653935185185184</v>
       </c>
       <c r="AH3" t="n">
-        <v>225546.9798808589</v>
+        <v>269225.4366487155</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.5748929962399</v>
+        <v>185.1024067702251</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.073896778553</v>
+        <v>253.2652790847555</v>
       </c>
       <c r="AC4" t="n">
-        <v>199.9749143492342</v>
+        <v>229.0939963090319</v>
       </c>
       <c r="AD4" t="n">
-        <v>161574.8929962399</v>
+        <v>185102.4067702251</v>
       </c>
       <c r="AE4" t="n">
-        <v>221073.896778553</v>
+        <v>253265.2790847555</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.012138562696003e-06</v>
+        <v>5.741600971067959e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>199974.9143492342</v>
+        <v>229093.9963090319</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.8499968883529</v>
+        <v>184.3775106623381</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.0820619435833</v>
+        <v>252.2734442497858</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.0777388388648</v>
+        <v>228.1968207986624</v>
       </c>
       <c r="AD5" t="n">
-        <v>160849.9968883529</v>
+        <v>184377.5106623381</v>
       </c>
       <c r="AE5" t="n">
-        <v>220082.0619435833</v>
+        <v>252273.4442497858</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.028383096267052e-06</v>
+        <v>5.772565559112208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>199077.7388388648</v>
+        <v>228196.8207986624</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.6618602474767</v>
+        <v>166.0521877210489</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.2502980525055</v>
+        <v>227.1999289453363</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.6657082033436</v>
+        <v>205.5162866039618</v>
       </c>
       <c r="AD2" t="n">
-        <v>134661.8602474767</v>
+        <v>166052.1877210489</v>
       </c>
       <c r="AE2" t="n">
-        <v>184250.2980525055</v>
+        <v>227199.9289453363</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178387532143096e-06</v>
+        <v>6.769133650121388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.517939814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>166665.7082033436</v>
+        <v>205516.2866039618</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.7306415338839</v>
+        <v>166.1209690074561</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.344407642984</v>
+        <v>227.2940385358147</v>
       </c>
       <c r="AC3" t="n">
-        <v>166.7508361065905</v>
+        <v>205.6014145072087</v>
       </c>
       <c r="AD3" t="n">
-        <v>134730.6415338839</v>
+        <v>166120.9690074561</v>
       </c>
       <c r="AE3" t="n">
-        <v>184344.407642984</v>
+        <v>227294.0385358147</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.185298651748351e-06</v>
+        <v>6.783852526220302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.506365740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>166750.8361065905</v>
+        <v>205601.4145072087</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9938338795784</v>
+        <v>212.8239706721585</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2755042814464</v>
+        <v>291.1951458044468</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7713158027378</v>
+        <v>263.4038897839101</v>
       </c>
       <c r="AD2" t="n">
-        <v>179993.8338795784</v>
+        <v>212823.9706721585</v>
       </c>
       <c r="AE2" t="n">
-        <v>246275.5042814464</v>
+        <v>291195.1458044468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.787273953016642e-06</v>
+        <v>5.659129773480718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.021412037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>222771.3158027378</v>
+        <v>263403.8897839101</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.2196071275689</v>
+        <v>175.9644030655773</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.9593848749886</v>
+        <v>240.7622592757914</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.2572962132992</v>
+        <v>217.7842471625328</v>
       </c>
       <c r="AD3" t="n">
-        <v>143219.6071275689</v>
+        <v>175964.4030655773</v>
       </c>
       <c r="AE3" t="n">
-        <v>195959.3848749886</v>
+        <v>240762.2592757914</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.160020154478136e-06</v>
+        <v>6.415933432611382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.309606481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>177257.2962132992</v>
+        <v>217784.2471625328</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.225949487401</v>
+        <v>158.3654143783811</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.4444010182306</v>
+        <v>216.6825465413972</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.700233622863</v>
+        <v>196.0026684154124</v>
       </c>
       <c r="AD2" t="n">
-        <v>128225.949487401</v>
+        <v>158365.4143783811</v>
       </c>
       <c r="AE2" t="n">
-        <v>175444.4010182307</v>
+        <v>216682.5465413972</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.145315450644168e-06</v>
+        <v>7.004003152860202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.792824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>158700.233622863</v>
+        <v>196002.6684154124</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.7917183933597</v>
+        <v>343.300639703727</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.7152785154302</v>
+        <v>469.7190805979585</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.0898203553776</v>
+        <v>424.8897508005587</v>
       </c>
       <c r="AD2" t="n">
-        <v>295791.7183933597</v>
+        <v>343300.639703727</v>
       </c>
       <c r="AE2" t="n">
-        <v>404715.2785154302</v>
+        <v>469719.0805979585</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.034616644643496e-06</v>
+        <v>3.846979231267206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>366089.8203553776</v>
+        <v>424889.7508005587</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.4310526877698</v>
+        <v>226.0627436705449</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.5561675124031</v>
+        <v>309.3090190742743</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.6890525779733</v>
+        <v>279.7890004118519</v>
       </c>
       <c r="AD3" t="n">
-        <v>190431.0526877698</v>
+        <v>226062.7436705449</v>
       </c>
       <c r="AE3" t="n">
-        <v>260556.1675124031</v>
+        <v>309309.0190742743</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7067739970934e-06</v>
+        <v>5.117869932877194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>235689.0525779733</v>
+        <v>279789.0004118519</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.644423523087</v>
+        <v>191.3989736868214</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.3784962141696</v>
+        <v>261.8805197249655</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.4869344702967</v>
+        <v>236.8870104741092</v>
       </c>
       <c r="AD4" t="n">
-        <v>167644.423523087</v>
+        <v>191398.9736868214</v>
       </c>
       <c r="AE4" t="n">
-        <v>229378.4962141696</v>
+        <v>261880.5197249655</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.961013585227688e-06</v>
+        <v>5.598576909247136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>207486.9344702968</v>
+        <v>236887.0104741091</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.5159174216065</v>
+        <v>187.2704675853409</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.7296920292923</v>
+        <v>256.2317155400882</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.3772442286759</v>
+        <v>231.7773202324882</v>
       </c>
       <c r="AD5" t="n">
-        <v>163515.9174216065</v>
+        <v>187270.4675853409</v>
       </c>
       <c r="AE5" t="n">
-        <v>223729.6920292923</v>
+        <v>256231.7155400882</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.00214849529431e-06</v>
+        <v>5.676353302713174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.188078703703703</v>
       </c>
       <c r="AH5" t="n">
-        <v>202377.2442286759</v>
+        <v>231777.3202324882</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.0776158492077</v>
+        <v>164.391131457583</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.8191532086362</v>
+        <v>224.9271984850329</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.1802726217666</v>
+        <v>203.4604623489918</v>
       </c>
       <c r="AD2" t="n">
-        <v>135077.6158492077</v>
+        <v>164391.131457583</v>
       </c>
       <c r="AE2" t="n">
-        <v>184819.1532086362</v>
+        <v>224927.1984850329</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.086766524691657e-06</v>
+        <v>7.076618293916585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.038773148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>167180.2726217666</v>
+        <v>203460.4623489918</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.2793725307065</v>
+        <v>266.7751943427656</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.7641996533096</v>
+        <v>365.0135901907125</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.8688093707103</v>
+        <v>330.1772054427014</v>
       </c>
       <c r="AD2" t="n">
-        <v>221279.3725307065</v>
+        <v>266775.1943427656</v>
       </c>
       <c r="AE2" t="n">
-        <v>302764.1996533096</v>
+        <v>365013.5901907125</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.421029448141016e-06</v>
+        <v>4.745184259888768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>273868.8093707103</v>
+        <v>330177.2054427015</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.5389305432301</v>
+        <v>190.5542103426084</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.183470779365</v>
+        <v>260.7246772490854</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.742100936633</v>
+        <v>235.8414799818915</v>
       </c>
       <c r="AD3" t="n">
-        <v>156538.9305432301</v>
+        <v>190554.2103426084</v>
       </c>
       <c r="AE3" t="n">
-        <v>214183.470779365</v>
+        <v>260724.6772490854</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.038279725005158e-06</v>
+        <v>5.954986272184286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.329861111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>193742.100936633</v>
+        <v>235841.4799818915</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.3642315720021</v>
+        <v>175.1549024138668</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.4714634722135</v>
+        <v>239.6546647714734</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.5752395900216</v>
+        <v>216.7823599231879</v>
       </c>
       <c r="AD4" t="n">
-        <v>152364.2315720021</v>
+        <v>175154.9024138668</v>
       </c>
       <c r="AE4" t="n">
-        <v>208471.4634722135</v>
+        <v>239654.6647714734</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09671894592165e-06</v>
+        <v>6.069526337554424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.231481481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>188575.2395900216</v>
+        <v>216782.3599231879</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.7697030971115</v>
+        <v>296.7074244036763</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.1648562417199</v>
+        <v>405.9681878768434</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.9821050495423</v>
+        <v>367.2231538058069</v>
       </c>
       <c r="AD2" t="n">
-        <v>261769.7030971115</v>
+        <v>296707.4244036763</v>
       </c>
       <c r="AE2" t="n">
-        <v>358164.8562417199</v>
+        <v>405968.1878768434</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.223878895327787e-06</v>
+        <v>4.275858804346571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>323982.1050495423</v>
+        <v>367223.1538058069</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.5321841169026</v>
+        <v>208.4698159149158</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.4343900082893</v>
+        <v>285.2375991738397</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.7739850672262</v>
+        <v>258.0149230422571</v>
       </c>
       <c r="AD3" t="n">
-        <v>173532.1841169026</v>
+        <v>208469.8159149158</v>
       </c>
       <c r="AE3" t="n">
-        <v>237434.3900082893</v>
+        <v>285237.5991738397</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.865901346464886e-06</v>
+        <v>5.51027734937175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.538194444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>214773.9850672262</v>
+        <v>258014.9230422571</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.1104453883351</v>
+        <v>181.402289428895</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.3336867207785</v>
+        <v>248.2026153006939</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.6871032864456</v>
+        <v>224.5145060510262</v>
       </c>
       <c r="AD4" t="n">
-        <v>158110.4453883351</v>
+        <v>181402.289428895</v>
       </c>
       <c r="AE4" t="n">
-        <v>216333.6867207785</v>
+        <v>248202.6153006938</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.046288484837509e-06</v>
+        <v>5.857108256136471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>195687.1032864456</v>
+        <v>224514.5060510262</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.552226104195</v>
+        <v>181.8440701447549</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.9381505862073</v>
+        <v>248.8070791661227</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.2338779689285</v>
+        <v>225.0612807335091</v>
       </c>
       <c r="AD5" t="n">
-        <v>158552.226104195</v>
+        <v>181844.0701447549</v>
       </c>
       <c r="AE5" t="n">
-        <v>216938.1505862073</v>
+        <v>248807.0791661227</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.04530126425657e-06</v>
+        <v>5.855210124083639e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.211226851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>196233.8779689285</v>
+        <v>225061.280733509</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.464898896431</v>
+        <v>391.7510693078886</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.9438272720201</v>
+        <v>536.0110958644706</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.0930479674819</v>
+        <v>484.8549491714626</v>
       </c>
       <c r="AD2" t="n">
-        <v>343464.898896431</v>
+        <v>391751.0693078886</v>
       </c>
       <c r="AE2" t="n">
-        <v>469943.8272720202</v>
+        <v>536011.0958644706</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874119141519799e-06</v>
+        <v>3.491341815415909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.174189814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>425093.0479674819</v>
+        <v>484854.9491714626</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.9304810767048</v>
+        <v>256.131221125039</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.4996574544259</v>
+        <v>350.4500364550962</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.3474094448362</v>
+        <v>317.0035768356418</v>
       </c>
       <c r="AD3" t="n">
-        <v>207930.4810767047</v>
+        <v>256131.221125039</v>
       </c>
       <c r="AE3" t="n">
-        <v>284499.6574544259</v>
+        <v>350450.0364550962</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.560516203520412e-06</v>
+        <v>4.770047481160292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.980902777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>257347.4094448362</v>
+        <v>317003.5768356418</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.0808053648862</v>
+        <v>218.1887794824021</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.1309907383269</v>
+        <v>298.5355138972793</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.354278639875</v>
+        <v>270.0437034482363</v>
       </c>
       <c r="AD4" t="n">
-        <v>182080.8053648862</v>
+        <v>218188.7794824021</v>
       </c>
       <c r="AE4" t="n">
-        <v>249130.9907383269</v>
+        <v>298535.5138972793</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82960121556338e-06</v>
+        <v>5.271332449460362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.413773148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>225354.278639875</v>
+        <v>270043.7034482363</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.7338056018754</v>
+        <v>193.9196059891652</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.2372809513982</v>
+        <v>265.3293600434795</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.0728808045348</v>
+        <v>240.006698313103</v>
       </c>
       <c r="AD5" t="n">
-        <v>169733.8056018754</v>
+        <v>193919.6059891652</v>
       </c>
       <c r="AE5" t="n">
-        <v>232237.2809513983</v>
+        <v>265329.3600434795</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.946224131465535e-06</v>
+        <v>5.488592096354923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.199652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>210072.8808045348</v>
+        <v>240006.698313103</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.5865944830347</v>
+        <v>193.7723948703245</v>
       </c>
       <c r="AB6" t="n">
-        <v>232.0358602041044</v>
+        <v>265.1279392961856</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.8906833706669</v>
+        <v>239.824500879235</v>
       </c>
       <c r="AD6" t="n">
-        <v>169586.5944830347</v>
+        <v>193772.3948703246</v>
       </c>
       <c r="AE6" t="n">
-        <v>232035.8602041044</v>
+        <v>265127.9392961856</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.957394097536963e-06</v>
+        <v>5.509400895944007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.179398148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>209890.6833706669</v>
+        <v>239824.500879235</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9753660772868</v>
+        <v>227.251565198593</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.405653456009</v>
+        <v>310.9356171360531</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.0757103894192</v>
+        <v>281.2603582375598</v>
       </c>
       <c r="AD2" t="n">
-        <v>193975.3660772868</v>
+        <v>227251.565198593</v>
       </c>
       <c r="AE2" t="n">
-        <v>265405.6534560089</v>
+        <v>310935.6171360531</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.649416724157547e-06</v>
+        <v>5.310748815772141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.255787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>240075.7103894192</v>
+        <v>281260.3582375598</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.4892162197661</v>
+        <v>179.6800744865006</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.4330082799035</v>
+        <v>245.8462048377501</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.3039632792204</v>
+        <v>222.3829880954221</v>
       </c>
       <c r="AD3" t="n">
-        <v>146489.2162197662</v>
+        <v>179680.0744865006</v>
       </c>
       <c r="AE3" t="n">
-        <v>200433.0082799035</v>
+        <v>245846.2048377501</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.133529034079593e-06</v>
+        <v>6.281150660516568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.289351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>181303.9632792204</v>
+        <v>222382.9880954222</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.4406304326099</v>
+        <v>168.6816869193787</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.3665310624627</v>
+        <v>230.7977257538067</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.2438305541108</v>
+        <v>208.7707147345726</v>
       </c>
       <c r="AD4" t="n">
-        <v>146440.6304326099</v>
+        <v>168681.6869193787</v>
       </c>
       <c r="AE4" t="n">
-        <v>200366.5310624627</v>
+        <v>230797.7257538067</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144410536372884e-06</v>
+        <v>6.30296260308151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.269097222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>181243.8305541108</v>
+        <v>208770.7147345725</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.2249167874019</v>
+        <v>176.1606638080176</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.3348939027035</v>
+        <v>241.0307918820109</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.5015285899485</v>
+        <v>218.0271513937027</v>
       </c>
       <c r="AD2" t="n">
-        <v>144224.9167874019</v>
+        <v>176160.6638080176</v>
       </c>
       <c r="AE2" t="n">
-        <v>197334.8939027035</v>
+        <v>241030.7918820109</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.067228894620885e-06</v>
+        <v>6.416834665652728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.627893518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>178501.5285899485</v>
+        <v>218027.1513937027</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.2832322026661</v>
+        <v>169.0483870226897</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8369748083627</v>
+        <v>231.2994610128233</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.9100775635553</v>
+        <v>209.2245650846586</v>
       </c>
       <c r="AD3" t="n">
-        <v>137283.2322026661</v>
+        <v>169048.3870226897</v>
       </c>
       <c r="AE3" t="n">
-        <v>187836.9748083627</v>
+        <v>231299.4610128233</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.190003957155015e-06</v>
+        <v>6.673687774570791e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.41087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>169910.0775635553</v>
+        <v>209224.5650846586</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.0834681436368</v>
+        <v>161.8796237523184</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.3541841085164</v>
+        <v>221.4908428427915</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.2368725024282</v>
+        <v>200.3520676662895</v>
       </c>
       <c r="AD2" t="n">
-        <v>131083.4681436368</v>
+        <v>161879.6237523184</v>
       </c>
       <c r="AE2" t="n">
-        <v>179354.1841085164</v>
+        <v>221490.8428427915</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.178831511862834e-06</v>
+        <v>6.910321223465712e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.616319444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>162236.8725024282</v>
+        <v>200352.0676662895</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8459680976199</v>
+        <v>162.6421237063014</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.3974701846793</v>
+        <v>222.5341289189544</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1805888197437</v>
+        <v>201.2957839836049</v>
       </c>
       <c r="AD3" t="n">
-        <v>131845.9680976199</v>
+        <v>162642.1237063014</v>
       </c>
       <c r="AE3" t="n">
-        <v>180397.4701846793</v>
+        <v>222534.1289189544</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176980124843695e-06</v>
+        <v>6.906296575111917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.619212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>163180.5888197437</v>
+        <v>201295.7839836049</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.6512194423842</v>
+        <v>161.2736923200772</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.4992505997675</v>
+        <v>220.6617807253914</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.1772168583747</v>
+        <v>199.6021300737777</v>
       </c>
       <c r="AD2" t="n">
-        <v>132651.2194423843</v>
+        <v>161273.6923200772</v>
       </c>
       <c r="AE2" t="n">
-        <v>181499.2505997675</v>
+        <v>220661.7807253914</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.942303471771153e-06</v>
+        <v>6.998348142475217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.513310185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>164177.2168583747</v>
+        <v>199602.1300737777</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.2070275327638</v>
+        <v>282.2147118828095</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.1888757887739</v>
+        <v>386.1386192324417</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.3441830820254</v>
+        <v>349.2860913618525</v>
       </c>
       <c r="AD2" t="n">
-        <v>236207.0275327638</v>
+        <v>282214.7118828095</v>
       </c>
       <c r="AE2" t="n">
-        <v>323188.8757887739</v>
+        <v>386138.6192324416</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.313437618713998e-06</v>
+        <v>4.489406598342201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>292344.1830820254</v>
+        <v>349286.0913618525</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.7683399739016</v>
+        <v>200.1675166767697</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.8115559352107</v>
+        <v>273.8780270846216</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.1649793688376</v>
+        <v>247.7394925699708</v>
       </c>
       <c r="AD3" t="n">
-        <v>165768.3399739016</v>
+        <v>200167.5166767697</v>
       </c>
       <c r="AE3" t="n">
-        <v>226811.5559352107</v>
+        <v>273878.0270846216</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.938438017429399e-06</v>
+        <v>5.702268743948348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.454282407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>205164.9793688376</v>
+        <v>247739.4925699708</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.8914786743207</v>
+        <v>177.9380807851786</v>
       </c>
       <c r="AB4" t="n">
-        <v>211.9293544518774</v>
+        <v>243.4627322042643</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.7031143077679</v>
+        <v>220.2269907448507</v>
       </c>
       <c r="AD4" t="n">
-        <v>154891.4786743207</v>
+        <v>177938.0807851786</v>
       </c>
       <c r="AE4" t="n">
-        <v>211929.3544518774</v>
+        <v>243462.7322042643</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075812916730489e-06</v>
+        <v>5.968855478070765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.211226851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>191703.1143077679</v>
+        <v>220226.9907448507</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>312.6713913643806</v>
+        <v>360.6187141808786</v>
       </c>
       <c r="AB2" t="n">
-        <v>427.8107917529957</v>
+        <v>493.4144341171214</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.9811302243064</v>
+        <v>446.3236530364902</v>
       </c>
       <c r="AD2" t="n">
-        <v>312671.3913643806</v>
+        <v>360618.7141808785</v>
       </c>
       <c r="AE2" t="n">
-        <v>427810.7917529957</v>
+        <v>493414.4341171214</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.954882938888692e-06</v>
+        <v>3.668127155612978e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.902199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>386981.1302243064</v>
+        <v>446323.6530364902</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.6105878761474</v>
+        <v>235.5710799885203</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.116012529646</v>
+        <v>322.3187443027148</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.0502036146277</v>
+        <v>291.5570957237583</v>
       </c>
       <c r="AD3" t="n">
-        <v>199610.5878761474</v>
+        <v>235571.0799885203</v>
       </c>
       <c r="AE3" t="n">
-        <v>273116.0125296459</v>
+        <v>322318.7443027148</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626705473057195e-06</v>
+        <v>4.928729738157961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.87962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>247050.2036146277</v>
+        <v>291557.0957237583</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.1567566713933</v>
+        <v>210.946656583174</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.6572018484252</v>
+        <v>288.6265218466473</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.7846548650763</v>
+        <v>261.0804116915559</v>
       </c>
       <c r="AD4" t="n">
-        <v>175156.7566713933</v>
+        <v>210946.656583174</v>
       </c>
       <c r="AE4" t="n">
-        <v>239657.2018484252</v>
+        <v>288626.5218466473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.888473922728444e-06</v>
+        <v>5.419910022982417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>216784.6548650763</v>
+        <v>261080.4116915558</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.7249865146463</v>
+        <v>190.698737431446</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.1204819365237</v>
+        <v>260.922425588118</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.3489833096748</v>
+        <v>236.0203554969885</v>
       </c>
       <c r="AD5" t="n">
-        <v>166724.9865146463</v>
+        <v>190698.737431446</v>
       </c>
       <c r="AE5" t="n">
-        <v>228120.4819365237</v>
+        <v>260922.425588118</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.975587729796852e-06</v>
+        <v>5.583369693625466e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>206348.9833096749</v>
+        <v>236020.3554969885</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.5247669459562</v>
+        <v>177.1655387988893</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.2721856505498</v>
+        <v>242.4057061764767</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.9219981078231</v>
+        <v>219.2708457976094</v>
       </c>
       <c r="AD2" t="n">
-        <v>140524.7669459562</v>
+        <v>177165.5387988893</v>
       </c>
       <c r="AE2" t="n">
-        <v>192272.1856505498</v>
+        <v>242405.7061764767</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.627549964191387e-06</v>
+        <v>6.571303056906447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.552083333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>173921.9981078231</v>
+        <v>219270.8457976094</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.758042286368</v>
+        <v>189.1998832093963</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.483269132854</v>
+        <v>258.8716271167293</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.0132869560347</v>
+        <v>234.1652823533948</v>
       </c>
       <c r="AD2" t="n">
-        <v>156758.042286368</v>
+        <v>189199.8832093963</v>
       </c>
       <c r="AE2" t="n">
-        <v>214483.269132854</v>
+        <v>258871.6271167293</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.916409331835116e-06</v>
+        <v>6.005713494152424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>194013.2869560347</v>
+        <v>234165.2823533948</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.3821005856215</v>
+        <v>172.6533493080577</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.0769832423445</v>
+        <v>236.2319294513728</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.7454255434885</v>
+        <v>213.6862856581975</v>
       </c>
       <c r="AD3" t="n">
-        <v>140382.1005856215</v>
+        <v>172653.3493080577</v>
       </c>
       <c r="AE3" t="n">
-        <v>192076.9832423445</v>
+        <v>236231.9294513729</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176839764620085e-06</v>
+        <v>6.542013576377327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.355902777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>173745.4255434885</v>
+        <v>213686.2856581975</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.3620383523457</v>
+        <v>241.0607089926453</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.7218890410351</v>
+        <v>329.8298968914939</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.6438701572143</v>
+        <v>298.3513944514356</v>
       </c>
       <c r="AD2" t="n">
-        <v>207362.0383523457</v>
+        <v>241060.7089926453</v>
       </c>
       <c r="AE2" t="n">
-        <v>283721.8890410351</v>
+        <v>329829.8968914939</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.53183811653633e-06</v>
+        <v>5.016037450087935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.469907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>256643.8701572143</v>
+        <v>298351.3944514355</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.9127889009159</v>
+        <v>172.4354930670138</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.1172914596173</v>
+        <v>235.9338489312378</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.5411850466965</v>
+        <v>213.4166535245453</v>
       </c>
       <c r="AD3" t="n">
-        <v>149912.7889009159</v>
+        <v>172435.4930670138</v>
       </c>
       <c r="AE3" t="n">
-        <v>205117.2914596173</v>
+        <v>235933.8489312378</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.11034829692437e-06</v>
+        <v>6.162172627977338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.266203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>185541.1850466965</v>
+        <v>213416.6535245453</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.3847103329803</v>
+        <v>171.9074144990782</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.394751065786</v>
+        <v>235.2113085374064</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.8876028939604</v>
+        <v>212.7630713718092</v>
       </c>
       <c r="AD4" t="n">
-        <v>149384.7103329803</v>
+        <v>171907.4144990781</v>
       </c>
       <c r="AE4" t="n">
-        <v>204394.751065786</v>
+        <v>235211.3085374064</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.123422932641975e-06</v>
+        <v>6.188075888528404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.243055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>184887.6028939604</v>
+        <v>212763.0713718092</v>
       </c>
     </row>
   </sheetData>
